--- a/reports/corpus_wicaksono-unigram_bigram-fold-2.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-2.xlsx
@@ -585,46 +585,46 @@
         <v>0.9950738916256158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933333333333333</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F2" t="n">
-        <v>0.974025974025974</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.993734335839599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9834162520729685</v>
+        <v>0.9966832504145937</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6432926829268293</v>
+        <v>0.8567073170731707</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9236111111111112</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9902985074626866</v>
+        <v>0.9858208955223881</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4078947368421053</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4569105691056911</v>
+        <v>0.5430894308943089</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -633,37 +633,37 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9016393442622951</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7819905213270142</v>
+        <v>0.8909952606635071</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6446700507614214</v>
+        <v>0.8527918781725888</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5706051873198847</v>
+        <v>0.8112391930835735</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8662827094027795</v>
+        <v>0.9207462125954676</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7703869532747892</v>
+        <v>0.869000446395588</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9180656809950357</v>
+        <v>0.9409765563407504</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9814126394052045</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -688,19 +688,19 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9974326059050064</v>
+        <v>0.9962311557788944</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9983164983164983</v>
+        <v>0.9966832504145937</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9952830188679245</v>
+        <v>0.9894366197183099</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -709,13 +709,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7237523861467139</v>
+        <v>0.8263997497654051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="P3" t="n">
-        <v>0.921311475409836</v>
+        <v>0.9201101928374655</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -727,34 +727,34 @@
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9939759036144579</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9950248756218906</v>
+        <v>0.995260663507109</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9844961240310077</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.99</v>
+        <v>0.987719298245614</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8662827094027795</v>
+        <v>0.9207462125954676</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9277856756381962</v>
+        <v>0.9279503752743423</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8662827094027795</v>
+        <v>0.9207462125954676</v>
       </c>
     </row>
     <row r="4">
@@ -767,46 +767,46 @@
         <v>0.9975308641975309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966555183946488</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.996309963099631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9350649350649352</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9934640522875817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.985415345592898</v>
+        <v>0.9949811794228357</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9937106918238994</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.392156862745098</v>
+        <v>0.625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9908103592314119</v>
+        <v>0.9966832504145937</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7814814814814816</v>
+        <v>0.9183006535947713</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9602888086642599</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9473684210526316</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.836300614463526</v>
+        <v>0.8990981793432024</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5166666666666666</v>
+        <v>0.6165413533834586</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6108695652173912</v>
+        <v>0.6830265848670757</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -815,37 +815,37 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9482758620689655</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8753315649867373</v>
+        <v>0.9238329238329239</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9456264775413711</v>
+        <v>0.9699769053117783</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7791411042944785</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7239488117001829</v>
+        <v>0.8908227848101267</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8662827094027795</v>
+        <v>0.9207462125954676</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8162120047763275</v>
+        <v>0.8930961624910436</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8743358567340279</v>
+        <v>0.9246894667474094</v>
       </c>
     </row>
     <row r="5">
@@ -858,46 +858,46 @@
         <v>404</v>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="n">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="H5" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="K5" t="n">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>3667</v>
+        <v>3197</v>
       </c>
       <c r="O5" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P5" t="n">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -906,31 +906,31 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="T5" t="n">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8662827094027795</v>
+        <v>0.9207462125954676</v>
       </c>
       <c r="AB5" t="n">
         <v>7987</v>
